--- a/pred_ohlcv/54_21/2019-10-16 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 FX ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-96302.82470555387</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-114605.5968055539</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-133033.2538055539</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-99000.24681775751</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-147301.0778684718</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-199786.7779205845</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-198015.6265205845</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-213902.5956205845</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-212501.9050205845</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-527401.7344205845</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-527400.7344205845</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-530174.5027205845</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-530304.5339205845</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 FX ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-96302.82470555387</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-114605.5968055539</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-133033.2538055539</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-99000.24681775751</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-147301.0778684718</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-199786.7779205845</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-198015.6265205845</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-213902.5956205845</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-212501.9050205845</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-530174.5027205845</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-530304.5339205845</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
